--- a/biology/Histoire de la zoologie et de la botanique/Edwin_Lankester/Edwin_Lankester.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edwin_Lankester/Edwin_Lankester.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edwin Lankester est un médecin et un parasitologiste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Edwin Lankester est né le 23 avril 1814 à Melton dans le Suffolk et mort le 30 octobre 1874.
 Il étudie la médecine à l’université de Londres de 1834 à 1837. Il enseigne la matière médicale et la botanique à l’Hôpital Saint-Georges en 1843. Lankester devient membre de la Royal Society en 1845. En 1850, il devient professeur d’histoire naturelle au New College de Londres. En 1862, il devient le médecin légiste du centre du Middlesex, fonction qu’il conserve jusqu’à sa mort.
